--- a/biology/Botanique/Jean-Vincent-Yves_Degland/Jean-Vincent-Yves_Degland.xlsx
+++ b/biology/Botanique/Jean-Vincent-Yves_Degland/Jean-Vincent-Yves_Degland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Vincent-Yves Degland (20 janvier 1773, Rennes[1], paroisse de Saint-Étienne - 19 février 1841, Rennes, rue Saint-Melaine[2]) est un médecin, biologiste et mathématicien, fondateur du cours de botanique de la ville de Rennes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Vincent-Yves Degland (20 janvier 1773, Rennes, paroisse de Saint-Étienne - 19 février 1841, Rennes, rue Saint-Melaine) est un médecin, biologiste et mathématicien, fondateur du cours de botanique de la ville de Rennes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudie au collège Saint-Thomas de Rennes[3]. En 1800, il devient docteur en médecine à Montpellier. En 1803, il est nommé professeur de mathématiques et d'histoire naturelle au lycée de Rouen, où il enseigne jusqu'en 1806[3]. Il succède en 1808, au professeur Jean Danthon à la direction du jardin botanique du Thabor.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie au collège Saint-Thomas de Rennes. En 1800, il devient docteur en médecine à Montpellier. En 1803, il est nommé professeur de mathématiques et d'histoire naturelle au lycée de Rouen, où il enseigne jusqu'en 1806. Il succède en 1808, au professeur Jean Danthon à la direction du jardin botanique du Thabor.
 La ruelle Degland située près du Thabor à Rennes porte son nom.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Examen de cette question : la sève circule-t-elle dans les plantes à l'instar du sang dans certaines classes d'animaux, Montpellier, in-4o, 25 prairial an VIII [14 juin 1800].
 Hortus Rhedonensis, herbier d’environ 5 500 planches.</t>
